--- a/Addons/LCD P3P4/LCD_P3P4_PickAndPlace.xlsx
+++ b/Addons/LCD P3P4/LCD_P3P4_PickAndPlace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-13" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-21" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Designator</t>
   </si>
@@ -176,6 +176,39 @@
   </si>
   <si>
     <t>17.46mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0805W8F1002T5E</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>62.103mm</t>
+  </si>
+  <si>
+    <t>21.336mm</t>
+  </si>
+  <si>
+    <t>61.103mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>61.781mm</t>
+  </si>
+  <si>
+    <t>12.348mm</t>
+  </si>
+  <si>
+    <t>60.781mm</t>
   </si>
 </sst>
 </file>
@@ -552,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -869,6 +902,94 @@
         <v>49</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
